--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1660</v>
+        <v>1671.85956648904</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.833</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="4">
@@ -515,11 +515,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Missy Kayko</t>
+          <t>Eric Papa</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1642</v>
+        <v>1645.309653342363</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -537,20 +537,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eric Papa</t>
+          <t>Missy Kayko</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1631</v>
+        <v>1642</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -577,33 +577,33 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ryan Leggette</t>
+          <t>George Brown</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1616</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Paul Assad</t>
+          <t>Ryan Leggette</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -621,24 +621,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>David Chester</t>
+          <t>Paul Assad</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="10">
@@ -647,29 +647,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Justin Goodfellow</t>
+          <t>David Chester</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>1615</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jeff Weber</t>
+          <t>Justin Goodfellow</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -687,24 +687,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jeff Ziev</t>
+          <t>Jeff Weber</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>1615</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="13">
@@ -713,20 +713,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Isaac Dunn</t>
+          <t>Jeff Ziev</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1601</v>
+        <v>1615</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
@@ -735,11 +735,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bob Sauchelli</t>
+          <t>Isaac Dunn</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -753,11 +753,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nelson Bakerman</t>
+          <t>Bob Sauchelli</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -775,11 +775,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ian Ainley</t>
+          <t>Nelson Bakerman</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -797,11 +797,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Colin Kelly</t>
+          <t>Ian Ainley</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -819,11 +819,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kurowska</t>
+          <t>Colin Kelly</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -841,15 +841,15 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Judy O'Brien</t>
+          <t>Kurowska</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1599</v>
+        <v>1599.690346657637</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -889,20 +889,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dave Hitchings</t>
+          <t>Judy O'Brien</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1585</v>
+        <v>1599</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -911,11 +911,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Phil O'Brien</t>
+          <t>Dave Hitchings</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -929,15 +929,15 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ben Cole</t>
+          <t>Alyssa Bird</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1584</v>
+        <v>1584.690346657637</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -951,11 +951,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tiffany Schleigh</t>
+          <t>Phil O'Brien</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -973,11 +973,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pat Murphy</t>
+          <t>Ben Cole</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -995,11 +995,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sarah Mroue</t>
+          <t>Matt Bird</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1017,11 +1017,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jared Sochinsky</t>
+          <t>Damir Uzunic</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1039,11 +1039,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Demelo</t>
+          <t>Kofi Wilson</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1061,7 +1061,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1083,11 +1083,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kofi Wilson</t>
+          <t>Demelo</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1105,11 +1105,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Damir Uzunic</t>
+          <t>Pat Murphy</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1127,37 +1127,37 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Adam Fratino</t>
+          <t>Jared Sochinsky</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Merle</t>
+          <t>Sarah Mroue</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1171,15 +1171,15 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Colin Hanson</t>
+          <t>Tiffany Schleigh</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1193,33 +1193,33 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rob Leonardi</t>
+          <t>Adam Fratino</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>1583</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Anthony Buccellato</t>
+          <t>Merle</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1237,11 +1237,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Stephen Dargo</t>
+          <t>Colin Hanson</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1259,21 +1259,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Roger Gibian</t>
+          <t>Rob Leonardi</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1570</v>
+        <v>1583</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1281,23 +1281,89 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>Anthony Buccellato</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Stephen Dargo</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Roger Gibian</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1570</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Paul Czeresko</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>1568</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="C42" t="n">
+        <v>1556.14043351096</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1671.85956648904</v>
+        <v>1671.9</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -515,20 +515,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eric Papa</t>
+          <t>Missy Kayko</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1645.309653342363</v>
+        <v>1670.1</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="5">
@@ -537,11 +537,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Missy Kayko</t>
+          <t>Eric Papa</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1642</v>
+        <v>1645.3</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -559,7 +559,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tom Witteman</t>
+          <t>George Brown</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>George Brown</t>
+          <t>Tom Witteman</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ryan Leggette</t>
+          <t>Paul Assad</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -625,7 +625,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Paul Assad</t>
+          <t>Ian Ainley</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -643,24 +643,24 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>David Chester</t>
+          <t>Ryan Leggette</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="11">
@@ -669,29 +669,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Justin Goodfellow</t>
+          <t>David Chester</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>1615</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jeff Weber</t>
+          <t>Justin Goodfellow</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -709,24 +709,24 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jeff Ziev</t>
+          <t>Jeff Weber</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1615</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="14">
@@ -735,20 +735,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Isaac Dunn</t>
+          <t>Jeff Ziev</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1601</v>
+        <v>1615</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -757,11 +757,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bob Sauchelli</t>
+          <t>Paul Jones</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1600</v>
+        <v>1601.1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -775,15 +775,15 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nelson Bakerman</t>
+          <t>Isaac Dunn</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -797,11 +797,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ian Ainley</t>
+          <t>Bob Sauchelli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -819,11 +819,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Colin Kelly</t>
+          <t>Nelson Bakerman</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -841,11 +841,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kurowska</t>
+          <t>Colin Kelly</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -863,15 +863,15 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Steve Olsen</t>
+          <t>Kurowska</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1599.690346657637</v>
+        <v>1600</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -889,11 +889,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Judy O'Brien</t>
+          <t>Steve Olsen</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1599</v>
+        <v>1599.7</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -911,20 +911,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dave Hitchings</t>
+          <t>Judy O'Brien</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1585</v>
+        <v>1599</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -933,20 +933,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alyssa Bird</t>
+          <t>Roger Gibian</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1584.690346657637</v>
+        <v>1586.6</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="24">
@@ -955,11 +955,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Phil O'Brien</t>
+          <t>Nick Shields</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1584</v>
+        <v>1585.9</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -973,15 +973,15 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ben Cole</t>
+          <t>Dave Hitchings</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1017,11 +1017,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Damir Uzunic</t>
+          <t>Ben Cole</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1039,11 +1039,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kofi Wilson</t>
+          <t>Phil O'Brien</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1061,11 +1061,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amelia Burger</t>
+          <t>Alyssa Bird</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1083,11 +1083,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Demelo</t>
+          <t>Dana Vandagriff</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1105,11 +1105,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pat Murphy</t>
+          <t>Damir Uzunic</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1127,11 +1127,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jared Sochinsky</t>
+          <t>Kofi Wilson</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1149,11 +1149,11 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sarah Mroue</t>
+          <t>Amelia Burger</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1171,11 +1171,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tiffany Schleigh</t>
+          <t>Demelo</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1193,37 +1193,37 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Adam Fratino</t>
+          <t>Pat Murphy</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Merle</t>
+          <t>Jared Sochinsky</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1237,15 +1237,15 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Colin Hanson</t>
+          <t>Sarah Mroue</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1259,29 +1259,29 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Rob Leonardi</t>
+          <t>Adam Fratino</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1583</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1303,11 +1303,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Stephen Dargo</t>
+          <t>Merle</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1325,21 +1325,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Roger Gibian</t>
+          <t>Rob Leonardi</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1570</v>
+        <v>1583</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1347,23 +1347,89 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Colin Hanson</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Stephen Dargo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1567.8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tiffany Schleigh</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1567.4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Paul Czeresko</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>1556.14043351096</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="C45" t="n">
+        <v>1556.1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
         <v>3</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1671.9</v>
+        <v>1671</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1670.1</v>
+        <v>1670</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1645.3</v>
+        <v>1645</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -757,11 +757,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Paul Jones</t>
+          <t>Isaac Dunn</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1601.1</v>
+        <v>1601</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -779,11 +779,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Isaac Dunn</t>
+          <t>Paul Jones</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1599.7</v>
+        <v>1599</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1586.6</v>
+        <v>1586</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1585.9</v>
+        <v>1585</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1567.8</v>
+        <v>1567</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1567.4</v>
+        <v>1567</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1556.1</v>
+        <v>1556</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>

--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -559,7 +559,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>George Brown</t>
+          <t>Tom Witteman</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tom Witteman</t>
+          <t>George Brown</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -599,33 +599,33 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Paul Assad</t>
+          <t>Chris Widgren</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1616</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ian Ainley</t>
+          <t>Ryan Leggette</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -643,11 +643,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ryan Leggette</t>
+          <t>Ian Ainley</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -665,24 +665,24 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>David Chester</t>
+          <t>Paul Assad</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="12">
@@ -691,25 +691,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Justin Goodfellow</t>
+          <t>David Chester</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>1615</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -731,24 +731,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jeff Ziev</t>
+          <t>Justin Goodfellow</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>1615</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="15">
@@ -757,20 +757,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Isaac Dunn</t>
+          <t>Jeff Ziev</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1601</v>
+        <v>1615</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
@@ -779,11 +779,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Paul Jones</t>
+          <t>Isaac Dunn</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -797,15 +797,15 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bob Sauchelli</t>
+          <t>Paul Jones</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -819,11 +819,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nelson Bakerman</t>
+          <t>Colin Kelly</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -841,11 +841,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Colin Kelly</t>
+          <t>Kurowska</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -863,11 +863,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kurowska</t>
+          <t>Nelson Bakerman</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -885,15 +885,15 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Steve Olsen</t>
+          <t>Bob Sauchelli</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -907,15 +907,15 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Judy O'Brien</t>
+          <t>Steve Olsen</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -933,20 +933,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Roger Gibian</t>
+          <t>Judy O'Brien</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1586</v>
+        <v>1599</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
@@ -955,25 +955,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nick Shields</t>
+          <t>Roger Gibian</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -995,15 +995,15 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Matt Bird</t>
+          <t>Nick Shields</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1017,11 +1017,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ben Cole</t>
+          <t>Phil O'Brien</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1039,11 +1039,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Phil O'Brien</t>
+          <t>Ben Cole</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1061,11 +1061,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alyssa Bird</t>
+          <t>Matt Bird</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1083,11 +1083,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dana Vandagriff</t>
+          <t>Alyssa Bird</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1105,11 +1105,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Damir Uzunic</t>
+          <t>Dana Vandagriff</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1127,11 +1127,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kofi Wilson</t>
+          <t>Mike Brady</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1149,11 +1149,11 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amelia Burger</t>
+          <t>Damir Uzunic</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1171,11 +1171,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Demelo</t>
+          <t>Kofi Wilson</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1193,11 +1193,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pat Murphy</t>
+          <t>Amelia Burger</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1215,11 +1215,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jared Sochinsky</t>
+          <t>Demelo</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1237,11 +1237,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sarah Mroue</t>
+          <t>Pat Murphy</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1259,37 +1259,37 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Adam Fratino</t>
+          <t>Jared Sochinsky</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Anthony Buccellato</t>
+          <t>Sarah Mroue</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1303,29 +1303,29 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Merle</t>
+          <t>Adam Fratino</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1583</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1347,11 +1347,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Colin Hanson</t>
+          <t>Merle</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1369,21 +1369,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Stephen Dargo</t>
+          <t>Anthony Buccellato</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1567</v>
+        <v>1583</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1391,21 +1391,21 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tiffany Schleigh</t>
+          <t>Colin Hanson</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1567</v>
+        <v>1583</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1417,19 +1417,63 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Tiffany Schleigh</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1567</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Stephen Dargo</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1567</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Paul Czeresko</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C47" t="n">
         <v>1556</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
         <v>3</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F47" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -559,20 +559,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ryan Leggette</t>
+          <t>Jeff Ziev</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="7">
@@ -581,20 +581,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jeff Ziev</t>
+          <t>Ryan Leggette</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
@@ -603,47 +603,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Duan Knibbs</t>
+          <t>Paul Assad</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1617</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>George Brown</t>
+          <t>Jeff Weber</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -665,59 +665,59 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Paul Assad</t>
+          <t>David Chester</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>1616</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nelson Bakerman</t>
+          <t>George Brown</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>1616</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>David Chester</t>
+          <t>Duan Knibbs</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jeff Weber</t>
+          <t>Nelson Bakerman</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -753,7 +753,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Isaac Dunn</t>
+          <t>Kurowska</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -797,15 +797,15 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Colin Kelly</t>
+          <t>Isaac Dunn</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -819,15 +819,15 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ben Cole</t>
+          <t>Tom Witteman</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -841,21 +841,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nick Shields</t>
+          <t>Ian Ainley</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>1600</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>0.5</v>
@@ -863,11 +863,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Matt Bird</t>
+          <t>Paul Jones</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -885,11 +885,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Paul Jones</t>
+          <t>Steve Olsen</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -907,11 +907,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bob Sauchelli</t>
+          <t>Nick Shields</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -929,11 +929,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Kurowska</t>
+          <t>Bob Sauchelli</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -955,7 +955,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tom Witteman</t>
+          <t>Matt Bird</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -977,17 +977,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ian Ainley</t>
+          <t>Colin Kelly</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0.5</v>
@@ -999,11 +999,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Steve Olsen</t>
+          <t>Ben Cole</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Roger Gibian</t>
+          <t>Adam Fratino</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1083,15 +1083,15 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Phil O'Brien</t>
+          <t>Damir Uzunic</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1105,15 +1105,15 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alyssa Bird</t>
+          <t>Kofi Wilson</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1127,11 +1127,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mike Brady</t>
+          <t>Jared Sochinsky</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1149,11 +1149,11 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jeff Behrens</t>
+          <t>Colin Hanson</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1171,11 +1171,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Damir Uzunic</t>
+          <t>Demelo</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1193,11 +1193,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kofi Wilson</t>
+          <t>Rob Leonardi</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1237,11 +1237,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Demelo</t>
+          <t>Deb Czeresko</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1259,11 +1259,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jared Sochinsky</t>
+          <t>Phil O'Brien</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1281,37 +1281,37 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Adam Fratino</t>
+          <t>Anthony Buccellato</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Anthony Buccellato</t>
+          <t>Alyssa Bird</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1325,15 +1325,15 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rob Leonardi</t>
+          <t>Mike Brady</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1347,15 +1347,15 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Deb Czeresko</t>
+          <t>Jeff Behrens</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1369,29 +1369,29 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Colin Hanson</t>
+          <t>Roger Gibian</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>1583</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1435,11 +1435,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dana Vandagriff</t>
+          <t>Sarah Mroue</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sarah Mroue</t>
+          <t>Dana Vandagriff</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1501,24 +1501,24 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tiffany Schleigh</t>
+          <t>Paul Czeresko</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50">
@@ -1527,11 +1527,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Paul Czeresko</t>
+          <t>Tiffany Schleigh</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>

--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ben Brown</t>
+          <t>Mike Dunlap</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3">
@@ -493,25 +493,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mike Dunlap</t>
+          <t>Ben Brown</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
@@ -541,16 +541,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1643</v>
+        <v>1631</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="6">
@@ -559,20 +559,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jeff Ziev</t>
+          <t>Nelson Bakerman</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -581,20 +581,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ryan Leggette</t>
+          <t>Jeff Ziev</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="8">
@@ -603,25 +603,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Paul Assad</t>
+          <t>Ryan Leggette</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1617</v>
+        <v>1626</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -643,33 +643,33 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chris Widgren</t>
+          <t>Justin Goodfellow</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>David Chester</t>
+          <t>Chris Widgren</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -687,11 +687,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>George Brown</t>
+          <t>David Chester</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -709,7 +709,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nelson Bakerman</t>
+          <t>Paul Assad</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -757,20 +757,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Justin Goodfellow</t>
+          <t>Bob Sauchelli</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1614</v>
+        <v>1602</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kurowska</t>
+          <t>Isaac Dunn</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Isaac Dunn</t>
+          <t>Tom Witteman</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tom Witteman</t>
+          <t>George Brown</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -845,7 +845,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ian Ainley</t>
+          <t>Adam Fratino</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -889,7 +889,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Steve Olsen</t>
+          <t>Nick Shields</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nick Shields</t>
+          <t>Kurowska</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -929,15 +929,15 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bob Sauchelli</t>
+          <t>Steve Olsen</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -951,11 +951,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Matt Bird</t>
+          <t>Judy O'Brien</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -973,7 +973,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -995,21 +995,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ben Cole</t>
+          <t>Ian Ainley</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>1598</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>0.5</v>
@@ -1017,15 +1017,15 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Judy O'Brien</t>
+          <t>Ben Cole</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1039,24 +1039,24 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Adam Fratino</t>
+          <t>Matt Bird</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1586</v>
+        <v>1598</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -1065,11 +1065,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dave Hitchings</t>
+          <t>Damir Uzunic</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1083,15 +1083,15 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Damir Uzunic</t>
+          <t>Dave Hitchings</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1105,11 +1105,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Kofi Wilson</t>
+          <t>Rob Leonardi</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1127,15 +1127,15 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jared Sochinsky</t>
+          <t>Colin Hanson</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1149,11 +1149,11 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Colin Hanson</t>
+          <t>Jared Sochinsky</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1171,11 +1171,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Demelo</t>
+          <t>Merle</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1193,11 +1193,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rob Leonardi</t>
+          <t>Demelo</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1215,11 +1215,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amelia Burger</t>
+          <t>Mike Brady</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1237,11 +1237,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Deb Czeresko</t>
+          <t>Jeff Behrens</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1259,11 +1259,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Phil O'Brien</t>
+          <t>Chris Greene</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1281,11 +1281,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Anthony Buccellato</t>
+          <t>Phil O'Brien</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1303,7 +1303,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1325,11 +1325,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mike Brady</t>
+          <t>Deb Czeresko</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1347,11 +1347,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jeff Behrens</t>
+          <t>Anthony Buccellato</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1369,24 +1369,24 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Roger Gibian</t>
+          <t>Kofi Wilson</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Merle</t>
+          <t>Amelia Burger</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1417,29 +1417,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pat Murphy</t>
+          <t>Roger Gibian</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1568</v>
+        <v>1582</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sarah Mroue</t>
+          <t>Stephen Dargo</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dana Vandagriff</t>
+          <t>Pat Murphy</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1479,15 +1479,15 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Stephen Dargo</t>
+          <t>Dana Vandagriff</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1501,24 +1501,24 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Paul Czeresko</t>
+          <t>Sarah Mroue</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1527,19 +1527,41 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tiffany Schleigh</t>
+          <t>Paul Czeresko</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>3</v>
       </c>
       <c r="F50" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Tiffany Schleigh</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1552</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chris Widgren</t>
+          <t>David Chester</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>David Chester</t>
+          <t>Chris Widgren</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -757,11 +757,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bob Sauchelli</t>
+          <t>Tom Witteman</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -775,11 +775,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Isaac Dunn</t>
+          <t>George Brown</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -797,11 +797,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tom Witteman</t>
+          <t>Paul Jones</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -819,21 +819,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>George Brown</t>
+          <t>Adam Fratino</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>0.5</v>
@@ -841,21 +841,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Adam Fratino</t>
+          <t>Bob Sauchelli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>1600</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0.5</v>
@@ -863,11 +863,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Paul Jones</t>
+          <t>Isaac Dunn</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -885,11 +885,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nick Shields</t>
+          <t>Kurowska</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -907,15 +907,15 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kurowska</t>
+          <t>Colin Kelly</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -929,11 +929,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Steve Olsen</t>
+          <t>Judy O'Brien</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -951,11 +951,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Judy O'Brien</t>
+          <t>Mike Brady</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -973,21 +973,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Colin Kelly</t>
+          <t>Ian Ainley</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>0.5</v>
@@ -995,21 +995,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ian Ainley</t>
+          <t>Ben Cole</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>1598</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0.5</v>
@@ -1017,11 +1017,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ben Cole</t>
+          <t>Matt Bird</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1039,24 +1039,24 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Matt Bird</t>
+          <t>Damir Uzunic</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1065,20 +1065,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Damir Uzunic</t>
+          <t>Steve Olsen</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="30">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dave Hitchings</t>
+          <t>Rob Leonardi</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rob Leonardi</t>
+          <t>Colin Hanson</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1127,24 +1127,24 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Colin Hanson</t>
+          <t>Nick Shields</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="33">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jared Sochinsky</t>
+          <t>Kofi Wilson</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Merle</t>
+          <t>Demelo</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Demelo</t>
+          <t>Jared Sochinsky</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mike Brady</t>
+          <t>Jeff Behrens</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jeff Behrens</t>
+          <t>Chris Greene</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chris Greene</t>
+          <t>Phil O'Brien</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Phil O'Brien</t>
+          <t>Alyssa Bird</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Alyssa Bird</t>
+          <t>Deb Czeresko</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Deb Czeresko</t>
+          <t>Merle</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kofi Wilson</t>
+          <t>Dave Hitchings</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Roger Gibian</t>
+          <t>Stephen Dargo</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1435,33 +1435,33 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Stephen Dargo</t>
+          <t>Roger Gibian</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1568</v>
+        <v>1582</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pat Murphy</t>
+          <t>Dana Vandagriff</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1479,11 +1479,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dana Vandagriff</t>
+          <t>Pat Murphy</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1501,7 +1501,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>

--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ELO</t>
+          <t>Elo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
@@ -537,20 +537,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eric Papa</t>
+          <t>Nelson Bakerman</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1632</v>
+        <v>1640</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -559,20 +559,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nelson Bakerman</t>
+          <t>Chris Widgren</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -581,11 +581,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jeff Ziev</t>
+          <t>Eric Papa</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
@@ -603,20 +603,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ryan Leggette</t>
+          <t>Jeff Ziev</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="9">
@@ -625,20 +625,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jeff Weber</t>
+          <t>Ryan Leggette</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1618</v>
+        <v>1627</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Justin Goodfellow</t>
+          <t>Bob Sauchelli</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -665,33 +665,33 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>David Chester</t>
+          <t>Paul Assad</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chris Widgren</t>
+          <t>David Chester</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -709,7 +709,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Paul Assad</t>
+          <t>Justin Goodfellow</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -757,33 +757,33 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tom Witteman</t>
+          <t>Anthony Buccellato</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1601</v>
+        <v>1613</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>George Brown</t>
+          <t>Damir Uzunic</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -797,11 +797,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Paul Jones</t>
+          <t>Isaac Dunn</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -819,21 +819,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Adam Fratino</t>
+          <t>Paul Jones</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0.5</v>
@@ -841,11 +841,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bob Sauchelli</t>
+          <t>Kurowska</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -863,11 +863,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Isaac Dunn</t>
+          <t>Tom Witteman</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -885,11 +885,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kurowska</t>
+          <t>Mike Brady</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -911,17 +911,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Colin Kelly</t>
+          <t>Ian Ainley</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>1599</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>0.5</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Judy O'Brien</t>
+          <t>Colin Kelly</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -951,21 +951,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mike Brady</t>
+          <t>Adam Fratino</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>0.5</v>
@@ -977,17 +977,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ian Ainley</t>
+          <t>Judy O'Brien</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0.5</v>
@@ -995,68 +995,68 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ben Cole</t>
+          <t>Jeff Weber</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Matt Bird</t>
+          <t>George Brown</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Damir Uzunic</t>
+          <t>Steve Olsen</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="29">
@@ -1065,25 +1065,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Steve Olsen</t>
+          <t>Dave Hitchings</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>1585</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1105,11 +1105,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Colin Hanson</t>
+          <t>Chris Greene</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kofi Wilson</t>
+          <t>Colin Hanson</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Demelo</t>
+          <t>Kofi Wilson</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jeff Behrens</t>
+          <t>Demelo</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chris Greene</t>
+          <t>Phil O'Brien</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Phil O'Brien</t>
+          <t>Jeff Behrens</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1281,51 +1281,51 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Alyssa Bird</t>
+          <t>Ben Cole</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Deb Czeresko</t>
+          <t>Roger Gibian</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1347,15 +1347,15 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Anthony Buccellato</t>
+          <t>Deb Czeresko</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1369,15 +1369,15 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dave Hitchings</t>
+          <t>Amelia Burger</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1395,20 +1395,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Amelia Burger</t>
+          <t>Matt Bird</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="45">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1435,33 +1435,33 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Roger Gibian</t>
+          <t>Pat Murphy</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dana Vandagriff</t>
+          <t>Alyssa Bird</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1479,15 +1479,15 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pat Murphy</t>
+          <t>Dana Vandagriff</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>

--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1684</v>
+        <v>1720</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.875</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="3">
@@ -493,20 +493,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ben Brown</t>
+          <t>Missy Kayko</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1678</v>
+        <v>1697</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="4">
@@ -515,20 +515,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Missy Kayko</t>
+          <t>Ben Brown</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1670</v>
+        <v>1684</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.857</v>
       </c>
     </row>
     <row r="5">
@@ -537,20 +537,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nelson Bakerman</t>
+          <t>Jeff Ziev</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1640</v>
+        <v>1681</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="6">
@@ -559,20 +559,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chris Widgren</t>
+          <t>Ryan Leggette</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="7">
@@ -581,20 +581,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eric Papa</t>
+          <t>Bob Sauchelli</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1631</v>
+        <v>1653</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
@@ -603,20 +603,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jeff Ziev</t>
+          <t>Eric Papa</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1630</v>
+        <v>1652</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>0.667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -625,20 +625,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ryan Leggette</t>
+          <t>Mike Brady</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1627</v>
+        <v>1650</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.75</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="10">
@@ -647,42 +647,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bob Sauchelli</t>
+          <t>Paul Assad</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1617</v>
+        <v>1650</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Paul Assad</t>
+          <t>Nelson Bakerman</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1617</v>
+        <v>1650</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12">
@@ -691,42 +691,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>David Chester</t>
+          <t>Adam Fratino</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Duan Knibbs</t>
+          <t>Anthony Buccellato</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1616</v>
+        <v>1625</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="14">
@@ -735,17 +735,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Justin Goodfellow</t>
+          <t>Ben Cole</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
         <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0.667</v>
@@ -757,20 +757,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Anthony Buccellato</t>
+          <t>Matt Bird</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1613</v>
+        <v>1618</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.667</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="16">
@@ -779,20 +779,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Damir Uzunic</t>
+          <t>Nick Shields</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1602</v>
+        <v>1610</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="17">
@@ -801,17 +801,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Isaac Dunn</t>
+          <t>Chris Widgren</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>0.5</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>0.5</v>
@@ -845,64 +845,64 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kurowska</t>
+          <t>Stephen Dargo</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tom Witteman</t>
+          <t>Tom Wittemann</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mike Brady</t>
+          <t>Damir Uzunic</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="22">
@@ -911,42 +911,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ian Ainley</t>
+          <t>David Chester</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1599</v>
+        <v>1587</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Colin Kelly</t>
+          <t>Steve Olsen</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1599</v>
+        <v>1585</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="24">
@@ -955,20 +955,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adam Fratino</t>
+          <t>Ian Ainley</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1598</v>
+        <v>1584</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="25">
@@ -977,20 +977,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Judy O'Brien</t>
+          <t>Roger Gibian</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1597</v>
+        <v>1580</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="26">
@@ -1003,16 +1003,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1588</v>
+        <v>1576</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="27">
@@ -1021,42 +1021,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>George Brown</t>
+          <t>Pat Murphy</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Steve Olsen</t>
+          <t>Alyssa Bird</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1585</v>
+        <v>1566</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="29">
@@ -1065,61 +1065,61 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dave Hitchings</t>
+          <t>Paul Czeresko</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1585</v>
+        <v>1549</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rob Leonardi</t>
+          <t>George Brown</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1585</v>
+        <v>1531</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chris Greene</t>
+          <t>Jeff Behrens</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1585</v>
+        <v>1528</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1131,20 +1131,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nick Shields</t>
+          <t>Dana Vandagriff</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1584</v>
+        <v>1524</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1153,39 +1153,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Colin Hanson</t>
+          <t>Sarah Mroue</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1584</v>
+        <v>1500</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Kofi Wilson</t>
+          <t>Phil O'Brien</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1584</v>
+        <v>1489</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1193,375 +1193,23 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jared Sochinsky</t>
+          <t>Tiffany Schleigh</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1584</v>
+        <v>1475</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>32</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Demelo</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1584</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>32</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Phil O'Brien</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1584</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>32</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Jeff Behrens</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1584</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Ben Cole</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1583</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.333</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Roger Gibian</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1583</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.333</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Merle</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1583</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Deb Czeresko</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1583</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>40</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Amelia Burger</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1583</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Matt Bird</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1582</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.333</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Stephen Dargo</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1581</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.333</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Pat Murphy</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1568</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Alyssa Bird</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1568</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Dana Vandagriff</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1567</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Sarah Mroue</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1567</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Paul Czeresko</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1566</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Tiffany Schleigh</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1553</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mike Dunlap</t>
+          <t>Missy Kayko</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1720</v>
+        <v>1737</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.846</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="3">
@@ -493,20 +493,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Missy Kayko</t>
+          <t>Mike Dunlap</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1697</v>
+        <v>1728</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.769</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -515,20 +515,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ben Brown</t>
+          <t>Mike Brady</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1684</v>
+        <v>1710</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="5">
@@ -537,20 +537,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jeff Ziev</t>
+          <t>Nick Shields</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1681</v>
+        <v>1694</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.769</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -559,20 +559,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ryan Leggette</t>
+          <t>Ben Brown</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1660</v>
+        <v>1684</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -581,20 +581,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bob Sauchelli</t>
+          <t>Stephen Dargo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1653</v>
+        <v>1681</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.75</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="8">
@@ -603,20 +603,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eric Papa</t>
+          <t>Anthony Buccellato</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1652</v>
+        <v>1679</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -625,20 +625,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mike Brady</t>
+          <t>Nelson Bakerman</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1650</v>
+        <v>1664</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.833</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -647,20 +647,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Paul Assad</t>
+          <t>Jeff Ziev</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1650</v>
+        <v>1661</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -669,39 +669,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nelson Bakerman</t>
+          <t>Eric Papa</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Adam Fratino</t>
+          <t>Paul Assad</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1626</v>
+        <v>1642</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>0.625</v>
@@ -713,17 +713,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Anthony Buccellato</t>
+          <t>Chris Greene</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1625</v>
+        <v>1640</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>0.667</v>
@@ -735,20 +735,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ben Cole</t>
+          <t>Justin Goodfellow</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1620</v>
+        <v>1638</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0.667</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="15">
@@ -757,20 +757,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Matt Bird</t>
+          <t>David Chester</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1618</v>
+        <v>1637</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>0.625</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="16">
@@ -779,20 +779,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nick Shields</t>
+          <t>Ryan Leggette</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1610</v>
+        <v>1636</v>
       </c>
       <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
       <c r="F16" t="n">
-        <v>0.571</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="17">
@@ -801,20 +801,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chris Widgren</t>
+          <t>Tom Wittemann</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1603</v>
+        <v>1633</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="18">
@@ -823,20 +823,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Paul Jones</t>
+          <t>Nik Elkovitch</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1599</v>
+        <v>1629</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="19">
@@ -845,20 +845,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Stephen Dargo</t>
+          <t>Bob Sauchelli</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1599</v>
+        <v>1623</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.556</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="20">
@@ -867,20 +867,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tom Wittemann</t>
+          <t>Alyssa Bird</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1588</v>
+        <v>1620</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>0.429</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="21">
@@ -889,20 +889,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Damir Uzunic</t>
+          <t>Ryan Flynn</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1588</v>
+        <v>1618</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>0.429</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22">
@@ -911,20 +911,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>David Chester</t>
+          <t>Damir Uzunic</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1587</v>
+        <v>1618</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.429</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="23">
@@ -933,42 +933,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Steve Olsen</t>
+          <t>August Kaplan</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1585</v>
+        <v>1616</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>0.429</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ian Ainley</t>
+          <t>Will Allured</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1584</v>
+        <v>1616</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0.444</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1580</v>
+        <v>1616</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.429</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="26">
@@ -999,20 +999,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jeff Weber</t>
+          <t>Matt Bird</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1576</v>
+        <v>1615</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>0.375</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="27">
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pat Murphy</t>
+          <t>Paul Czeresko</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1571</v>
+        <v>1612</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.375</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="28">
@@ -1043,20 +1043,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Alyssa Bird</t>
+          <t>Adam Fratino</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1566</v>
+        <v>1611</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.375</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="29">
@@ -1065,20 +1065,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Paul Czeresko</t>
+          <t>Ben Cole</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1549</v>
+        <v>1602</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>0.333</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="30">
@@ -1087,20 +1087,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>George Brown</t>
+          <t>Ian Ainley</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1531</v>
+        <v>1596</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.143</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
@@ -1109,20 +1109,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jeff Behrens</t>
+          <t>Chris Widgren</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1528</v>
+        <v>1592</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="32">
@@ -1131,20 +1131,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dana Vandagriff</t>
+          <t>Paul Jones</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1524</v>
+        <v>1589</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="33">
@@ -1153,20 +1153,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sarah Mroue</t>
+          <t>Steve Olsen</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1500</v>
+        <v>1584</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>0.111</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="34">
@@ -1175,20 +1175,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Phil O'Brien</t>
+          <t>Pat Murphy</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1489</v>
+        <v>1572</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="35">
@@ -1197,19 +1197,195 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Duan Knibbs</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1572</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Jeff Weber</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1564</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Deb Czeresko</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1552</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dana Vandagriff</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1541</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>George Brown</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1521</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Jeff Behrens</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1517</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sarah Mroue</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Tiffany Schleigh</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>1475</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C42" t="n">
+        <v>1493</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Phil O'Brien</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1489</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="n">
-        <v>9</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Rankings_Table.xlsx
+++ b/Rankings_Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Missy Kayko</t>
+          <t>Mike Dunlap</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1737</v>
+        <v>1749</v>
       </c>
       <c r="D2" t="n">
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.783</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -493,20 +493,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mike Dunlap</t>
+          <t>Missy Kayko</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1728</v>
+        <v>1737</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -559,20 +559,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ben Brown</t>
+          <t>Anthony Buccellato</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="7">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
@@ -603,11 +603,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anthony Buccellato</t>
+          <t>Nelson Bakerman</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1679</v>
+        <v>1664</v>
       </c>
       <c r="D8" t="n">
         <v>11</v>
@@ -625,20 +625,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nelson Bakerman</t>
+          <t>Jeff Ziev</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1664</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -647,20 +647,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jeff Ziev</t>
+          <t>Paul Assad</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="11">
@@ -669,42 +669,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eric Papa</t>
+          <t>David Chester</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.625</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Paul Assad</t>
+          <t>Ryan Leggette</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.625</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="13">
@@ -713,20 +713,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chris Greene</t>
+          <t>Tom Wittemann</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
         <v>6</v>
       </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
       <c r="F13" t="n">
-        <v>0.667</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="14">
@@ -735,20 +735,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Justin Goodfellow</t>
+          <t>Eric Papa</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.714</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="15">
@@ -757,20 +757,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>David Chester</t>
+          <t>Roger Gibian</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.571</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -779,20 +779,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ryan Leggette</t>
+          <t>Bob Sauchelli</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.636</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="17">
@@ -801,20 +801,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tom Wittemann</t>
+          <t>Alyssa Bird</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1633</v>
+        <v>1619</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>0.571</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="18">
@@ -823,20 +823,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nik Elkovitch</t>
+          <t>Matt Bird</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1629</v>
+        <v>1615</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>0.667</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="19">
@@ -845,20 +845,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bob Sauchelli</t>
+          <t>Adam Fratino</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1623</v>
+        <v>1611</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.615</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="20">
@@ -867,42 +867,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alyssa Bird</t>
+          <t>Paul Czeresko</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1620</v>
+        <v>1596</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>0.538</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ryan Flynn</t>
+          <t>Ian Ainley</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1618</v>
+        <v>1596</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -911,20 +911,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Damir Uzunic</t>
+          <t>Paul Jones</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1618</v>
+        <v>1589</v>
       </c>
       <c r="D22" t="n">
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>0.556</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="23">
@@ -933,42 +933,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>August Kaplan</t>
+          <t>Steve Olsen</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1616</v>
+        <v>1583</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Will Allured</t>
+          <t>Pat Murphy</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1616</v>
+        <v>1572</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="25">
@@ -977,20 +977,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Roger Gibian</t>
+          <t>Duan Knibbs</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1616</v>
+        <v>1572</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.533</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="26">
@@ -999,20 +999,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Matt Bird</t>
+          <t>Jeff Weber</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1615</v>
+        <v>1563</v>
       </c>
       <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
         <v>8</v>
       </c>
-      <c r="E26" t="n">
-        <v>6</v>
-      </c>
       <c r="F26" t="n">
-        <v>0.571</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="27">
@@ -1021,372 +1021,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Paul Czeresko</t>
+          <t>Tiffany Schleigh</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1612</v>
+        <v>1493</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.533</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Adam Fratino</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1611</v>
-      </c>
-      <c r="D28" t="n">
-        <v>8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.533</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Ben Cole</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1602</v>
-      </c>
-      <c r="D29" t="n">
-        <v>5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.556</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Ian Ainley</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1596</v>
-      </c>
-      <c r="D30" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Chris Widgren</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1592</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.444</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Paul Jones</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1589</v>
-      </c>
-      <c r="D32" t="n">
-        <v>5</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.455</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Steve Olsen</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1584</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.455</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Pat Murphy</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1572</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.417</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Duan Knibbs</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1572</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>7</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.364</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Jeff Weber</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1564</v>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.385</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Deb Czeresko</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1552</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Dana Vandagriff</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1541</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>George Brown</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1521</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Jeff Behrens</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1517</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Sarah Mroue</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Tiffany Schleigh</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1493</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>11</v>
-      </c>
-      <c r="F42" t="n">
         <v>0.154</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Phil O'Brien</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1489</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>8</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
